--- a/GridSearchResults/Hyperparameters_NTSK-wRLS_Yulara_8_Site_5_Power.xlsx
+++ b/GridSearchResults/Hyperparameters_NTSK-wRLS_Yulara_8_Site_5_Power.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>n_clusters</t>
+          <t>rules</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RLS_option</t>
+          <t>adaptive_filter</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -482,17 +482,19 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>2</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>6.025546986251054</v>
+        <v>6.025546986248139</v>
       </c>
       <c r="F2" t="n">
-        <v>1.005738801678753</v>
+        <v>1.005738801678266</v>
       </c>
       <c r="G2" t="n">
-        <v>4.798328146683038</v>
+        <v>4.798328146675348</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -510,17 +512,19 @@
       <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>2</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>5.963737039421884</v>
+        <v>6.150385157906561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9954219521051554</v>
+        <v>1.026575846589541</v>
       </c>
       <c r="G3" t="n">
-        <v>4.538831995738867</v>
+        <v>4.640152593538985</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -538,17 +542,19 @@
       <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
-        <v>2</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>5.913400081616413</v>
+        <v>6.005620046969991</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9870200872223579</v>
+        <v>1.002412747450085</v>
       </c>
       <c r="G4" t="n">
-        <v>4.449864379466197</v>
+        <v>4.340876560880753</v>
       </c>
       <c r="H4" t="n">
         <v>7</v>
@@ -566,17 +572,19 @@
       <c r="C5" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
-        <v>2</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>5.943846203705585</v>
+        <v>6.074465594736091</v>
       </c>
       <c r="F5" t="n">
-        <v>0.992101924010885</v>
+        <v>1.013903926403495</v>
       </c>
       <c r="G5" t="n">
-        <v>4.355135627569006</v>
+        <v>4.394404973155996</v>
       </c>
       <c r="H5" t="n">
         <v>10</v>
@@ -594,17 +602,19 @@
       <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
-        <v>2</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>5.982129819941999</v>
+        <v>5.986518648599366</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9984919361384805</v>
+        <v>0.9992244862762033</v>
       </c>
       <c r="G6" t="n">
-        <v>4.371761797924643</v>
+        <v>4.367646362440475</v>
       </c>
       <c r="H6" t="n">
         <v>13</v>
@@ -622,17 +632,19 @@
       <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
-        <v>2</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>5.92068087424596</v>
+        <v>5.9552208353104</v>
       </c>
       <c r="F7" t="n">
-        <v>0.988235342147964</v>
+        <v>0.9940004916240607</v>
       </c>
       <c r="G7" t="n">
-        <v>4.622617769604203</v>
+        <v>4.694499556510445</v>
       </c>
       <c r="H7" t="n">
         <v>16</v>
@@ -650,17 +662,19 @@
       <c r="C8" t="n">
         <v>19</v>
       </c>
-      <c r="D8" t="n">
-        <v>2</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>5.925563510675516</v>
+        <v>5.932163053369541</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9890503149500847</v>
+        <v>0.9901518607808386</v>
       </c>
       <c r="G8" t="n">
-        <v>4.625197059496947</v>
+        <v>4.641095578916298</v>
       </c>
       <c r="H8" t="n">
         <v>19</v>
